--- a/Android/ExcelData/Enums_02.xlsx
+++ b/Android/ExcelData/Enums_02.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E50E0B-1689-4E5A-9842-1A9C3ED1D13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BB6437-6842-4F38-B6C1-1480BF97E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FB90D5E5-1644-4D5B-8979-75D33762DBAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{FB90D5E5-1644-4D5B-8979-75D33762DBAD}"/>
   </bookViews>
   <sheets>
     <sheet name="@pc_npc" sheetId="1" r:id="rId1"/>
+    <sheet name="@skill_type" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +68,50 @@
   </si>
   <si>
     <t>PLAYER CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKII TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMAL_ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 공격 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 공격 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +137,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -155,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +222,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722FCFE1-B6C0-4017-9849-5A8A9A5086AC}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,25 +578,132 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24C6694-3C2E-4DE1-B830-05008D329AA3}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_02.xlsx
+++ b/Android/ExcelData/Enums_02.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BB6437-6842-4F38-B6C1-1480BF97E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E4840F-D5D6-4232-BD07-8EF10B7B3523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{FB90D5E5-1644-4D5B-8979-75D33762DBAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FB90D5E5-1644-4D5B-8979-75D33762DBAD}"/>
   </bookViews>
   <sheets>
     <sheet name="@pc_npc" sheetId="1" r:id="rId1"/>
-    <sheet name="@skill_type" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,46 +71,6 @@
   </si>
   <si>
     <t>NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKII TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORMAL_ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 공격 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 공격 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPECIAL_SKILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁극기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,13 +180,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722FCFE1-B6C0-4017-9849-5A8A9A5086AC}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -578,132 +531,36 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24C6694-3C2E-4DE1-B830-05008D329AA3}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_02.xlsx
+++ b/Android/ExcelData/Enums_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E4840F-D5D6-4232-BD07-8EF10B7B3523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B463A6D0-B27B-468E-9BA3-0BFD25D6E84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FB90D5E5-1644-4D5B-8979-75D33762DBAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,11 +66,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PLAYER CHARACTER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 PLAYER CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 NPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +504,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,13 +536,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -560,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/Enums_02.xlsx
+++ b/Android/ExcelData/Enums_02.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B463A6D0-B27B-468E-9BA3-0BFD25D6E84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE583A2-6EB5-4E98-BE4C-DA804920A328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FB90D5E5-1644-4D5B-8979-75D33762DBAD}"/>
+    <workbookView xWindow="1980" yWindow="2055" windowWidth="35370" windowHeight="15435" activeTab="1" xr2:uid="{FB90D5E5-1644-4D5B-8979-75D33762DBAD}"/>
   </bookViews>
   <sheets>
     <sheet name="@pc_npc" sheetId="1" r:id="rId1"/>
+    <sheet name="@sort_order" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +76,30 @@
   </si>
   <si>
     <t>2 NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SORT_ORDER_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asc or Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오름 차순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내림 차순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722FCFE1-B6C0-4017-9849-5A8A9A5086AC}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,4 +596,67 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4FAC5D-9618-4F4E-82BA-E71C5F342E82}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>